--- a/data/CHM317/Acridine Orange Data.xlsx
+++ b/data/CHM317/Acridine Orange Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/laura_stirchak_mail_utoronto_ca/Documents/Teaching/CHM317 Lab Coordinator/Acridine orange data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/davidross_hall_mail_utoronto_ca/Documents/Dave_Work&amp;School/UofT/Courses, TA, &amp; PhD Stuff/R4EnvChem/data/CHM317/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C32971B0-77E5-4D2A-B08E-8F1ABE08C58F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3BE7B97A-E691-4BCF-B46C-30872A5C3DEF}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C32971B0-77E5-4D2A-B08E-8F1ABE08C58F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E8DE8643-E577-44B0-B149-30BAAE3A80B7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CAAAA376-A8E3-4DF1-9A3F-CDCEC52B2E2A}"/>
+    <workbookView xWindow="-38520" yWindow="-6660" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{CAAAA376-A8E3-4DF1-9A3F-CDCEC52B2E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -38646,7 +38646,7 @@
   <dimension ref="A1:Q304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
